--- a/june2.xlsx
+++ b/june2.xlsx
@@ -34,9 +34,6 @@
     <t>График сменности</t>
   </si>
   <si>
-    <t>Отдел оперативной эксплуатации автоматизированных систем управления</t>
-  </si>
-  <si>
     <t>за</t>
   </si>
   <si>
@@ -230,6 +227,9 @@
   </si>
   <si>
     <t>Шихвеледов Р.Ш.</t>
+  </si>
+  <si>
+    <t>Отдел инженерно хозяйственного обеспечения</t>
   </si>
 </sst>
 </file>
@@ -614,89 +614,89 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1008,8 +1008,8 @@
   </sheetPr>
   <dimension ref="A1:AH33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1022,649 +1022,649 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
     </row>
     <row r="2" spans="1:34" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="34"/>
-      <c r="S2" s="34"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="34"/>
-      <c r="V2" s="34"/>
-      <c r="W2" s="34"/>
-      <c r="X2" s="34"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="21"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
+      <c r="X2" s="21"/>
     </row>
     <row r="3" spans="1:34" s="2" customFormat="1" ht="23.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="21"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
+      <c r="X3" s="21"/>
     </row>
     <row r="4" spans="1:34" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C4" s="35" t="s">
+      <c r="C4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="35"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+      <c r="X4" s="22"/>
     </row>
     <row r="5" spans="1:34" s="2" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="34" t="s">
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="34"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="4" t="s">
+      <c r="R5" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="S5" s="37"/>
-      <c r="T5" s="37"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="37" t="s">
+      <c r="W5" s="24"/>
+      <c r="X5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="W5" s="37"/>
-      <c r="X5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:34" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="25" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F6" s="38" t="s">
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="R6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="R6" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
+      <c r="S6" s="25"/>
+      <c r="T6" s="25"/>
+      <c r="U6" s="25"/>
     </row>
     <row r="7" spans="1:34" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="8" spans="1:34" s="6" customFormat="1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="C8" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="D8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="E8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35"/>
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+    </row>
+    <row r="9" spans="1:34" s="6" customFormat="1" ht="72.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="30"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18">
+        <v>2</v>
+      </c>
+      <c r="G9" s="18">
+        <v>3</v>
+      </c>
+      <c r="H9" s="18">
+        <v>4</v>
+      </c>
+      <c r="I9" s="18">
+        <v>5</v>
+      </c>
+      <c r="J9" s="18">
+        <v>6</v>
+      </c>
+      <c r="K9" s="18">
+        <v>7</v>
+      </c>
+      <c r="L9" s="18">
+        <v>8</v>
+      </c>
+      <c r="M9" s="18">
+        <v>9</v>
+      </c>
+      <c r="N9" s="18">
+        <v>10</v>
+      </c>
+      <c r="O9" s="18">
+        <v>11</v>
+      </c>
+      <c r="P9" s="18">
+        <v>12</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>13</v>
+      </c>
+      <c r="R9" s="18">
         <v>14</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="45"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="45"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="45"/>
-      <c r="AD8" s="45"/>
-      <c r="AE8" s="45"/>
-      <c r="AF8" s="45"/>
-      <c r="AG8" s="45"/>
-      <c r="AH8" s="45"/>
-    </row>
-    <row r="9" spans="1:34" s="6" customFormat="1" ht="72.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="32"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="28">
-        <v>1</v>
-      </c>
-      <c r="F9" s="28">
-        <v>2</v>
-      </c>
-      <c r="G9" s="28">
-        <v>3</v>
-      </c>
-      <c r="H9" s="28">
-        <v>4</v>
-      </c>
-      <c r="I9" s="28">
-        <v>5</v>
-      </c>
-      <c r="J9" s="28">
-        <v>6</v>
-      </c>
-      <c r="K9" s="28">
-        <v>7</v>
-      </c>
-      <c r="L9" s="28">
-        <v>8</v>
-      </c>
-      <c r="M9" s="28">
-        <v>9</v>
-      </c>
-      <c r="N9" s="28">
-        <v>10</v>
-      </c>
-      <c r="O9" s="28">
-        <v>11</v>
-      </c>
-      <c r="P9" s="28">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="28">
-        <v>13</v>
-      </c>
-      <c r="R9" s="28">
-        <v>14</v>
-      </c>
-      <c r="S9" s="28">
+      <c r="S9" s="18">
         <v>15</v>
       </c>
-      <c r="T9" s="28">
+      <c r="T9" s="18">
         <v>16</v>
       </c>
-      <c r="U9" s="28">
+      <c r="U9" s="18">
         <v>17</v>
       </c>
-      <c r="V9" s="28">
+      <c r="V9" s="18">
         <v>18</v>
       </c>
-      <c r="W9" s="28">
+      <c r="W9" s="18">
         <v>19</v>
       </c>
-      <c r="X9" s="28">
+      <c r="X9" s="18">
         <v>20</v>
       </c>
-      <c r="Y9" s="28">
+      <c r="Y9" s="18">
         <v>21</v>
       </c>
-      <c r="Z9" s="28">
+      <c r="Z9" s="18">
         <v>22</v>
       </c>
-      <c r="AA9" s="28">
+      <c r="AA9" s="18">
         <v>23</v>
       </c>
-      <c r="AB9" s="28">
+      <c r="AB9" s="18">
         <v>24</v>
       </c>
-      <c r="AC9" s="28">
+      <c r="AC9" s="18">
         <v>25</v>
       </c>
-      <c r="AD9" s="28">
+      <c r="AD9" s="18">
         <v>26</v>
       </c>
-      <c r="AE9" s="28">
+      <c r="AE9" s="18">
         <v>27</v>
       </c>
-      <c r="AF9" s="28">
+      <c r="AF9" s="18">
         <v>28</v>
       </c>
-      <c r="AG9" s="28">
+      <c r="AG9" s="18">
         <v>29</v>
       </c>
-      <c r="AH9" s="28">
+      <c r="AH9" s="18">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:34" s="6" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="32"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="29"/>
-      <c r="U10" s="29"/>
-      <c r="V10" s="29"/>
-      <c r="W10" s="29"/>
-      <c r="X10" s="29"/>
-      <c r="Y10" s="29"/>
-      <c r="Z10" s="29"/>
-      <c r="AA10" s="29"/>
-      <c r="AB10" s="29"/>
-      <c r="AC10" s="29"/>
-      <c r="AD10" s="29"/>
-      <c r="AE10" s="29"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="29"/>
-      <c r="AH10" s="29"/>
+      <c r="A10" s="30"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
     </row>
     <row r="11" spans="1:34" s="6" customFormat="1" ht="72.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="33"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="30"/>
-      <c r="U11" s="30"/>
-      <c r="V11" s="30"/>
-      <c r="W11" s="30"/>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="30"/>
-      <c r="AC11" s="30"/>
-      <c r="AD11" s="30"/>
-      <c r="AE11" s="30"/>
-      <c r="AF11" s="30"/>
-      <c r="AG11" s="30"/>
-      <c r="AH11" s="30"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
     </row>
     <row r="12" spans="1:34" s="7" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="C12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="G12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G12" s="8" t="s">
+      <c r="H12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="I12" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="J12" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="8" t="s">
+      <c r="K12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="K12" s="8" t="s">
+      <c r="L12" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="8" t="s">
+      <c r="M12" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="M12" s="8" t="s">
+      <c r="N12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="O12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="P12" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="P12" s="8" t="s">
+      <c r="Q12" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="Q12" s="8" t="s">
+      <c r="R12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="R12" s="8" t="s">
+      <c r="S12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="S12" s="8" t="s">
+      <c r="T12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="T12" s="8" t="s">
+      <c r="U12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U12" s="8" t="s">
+      <c r="V12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="V12" s="8" t="s">
+      <c r="W12" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="W12" s="8" t="s">
+      <c r="X12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="X12" s="8" t="s">
+      <c r="Y12" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="Y12" s="8" t="s">
+      <c r="Z12" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Z12" s="8" t="s">
+      <c r="AA12" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AA12" s="8" t="s">
+      <c r="AB12" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AB12" s="8" t="s">
+      <c r="AC12" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AC12" s="8" t="s">
+      <c r="AD12" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AD12" s="8" t="s">
+      <c r="AE12" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AE12" s="8" t="s">
+      <c r="AF12" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AF12" s="8" t="s">
+      <c r="AG12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AG12" s="8" t="s">
+      <c r="AH12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AH12" s="8" t="s">
+    </row>
+    <row r="13" spans="1:34" s="7" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="41" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:34" s="7" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="25" t="s">
+      <c r="D13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>50</v>
-      </c>
       <c r="E13" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="10"/>
       <c r="H13" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L13" s="10"/>
       <c r="M13" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N13" s="10"/>
       <c r="O13" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P13" s="10"/>
       <c r="Q13" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
       <c r="U13" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V13" s="10"/>
       <c r="W13" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="X13" s="10"/>
       <c r="Y13" s="10"/>
       <c r="Z13" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA13" s="10"/>
       <c r="AB13" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AC13" s="10"/>
       <c r="AD13" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AE13" s="10"/>
       <c r="AF13" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AG13" s="10"/>
       <c r="AH13" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34" s="7" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="37"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="42"/>
+      <c r="D14" s="11" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" spans="1:34" s="7" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="21"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="11" t="s">
-        <v>53</v>
-      </c>
       <c r="E14" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L14" s="12"/>
       <c r="M14" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N14" s="12"/>
       <c r="O14" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P14" s="12"/>
       <c r="Q14" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R14" s="12"/>
       <c r="S14" s="12"/>
       <c r="T14" s="12"/>
       <c r="U14" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V14" s="12"/>
       <c r="W14" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
       <c r="Z14" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA14" s="12"/>
       <c r="AB14" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC14" s="12"/>
       <c r="AD14" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE14" s="12"/>
       <c r="AF14" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG14" s="12"/>
       <c r="AH14" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" s="7" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="37"/>
+      <c r="B15" s="44" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="15" spans="1:34" s="7" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="21"/>
-      <c r="B15" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="26"/>
+      <c r="C15" s="42"/>
       <c r="D15" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H15" s="12"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
       <c r="L15" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M15" s="12"/>
       <c r="N15" s="12"/>
       <c r="O15" s="12"/>
       <c r="P15" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
@@ -1672,49 +1672,49 @@
       <c r="T15" s="12"/>
       <c r="U15" s="12"/>
       <c r="V15" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W15" s="12"/>
       <c r="X15" s="12"/>
       <c r="Y15" s="12"/>
       <c r="Z15" s="12"/>
       <c r="AA15" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB15" s="12"/>
       <c r="AC15" s="12"/>
       <c r="AD15" s="12"/>
       <c r="AE15" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF15" s="12"/>
       <c r="AG15" s="12"/>
       <c r="AH15" s="12"/>
     </row>
     <row r="16" spans="1:34" s="7" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="27"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H16" s="12"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
       <c r="L16" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M16" s="12"/>
       <c r="N16" s="12"/>
       <c r="O16" s="12"/>
       <c r="P16" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
@@ -1722,167 +1722,167 @@
       <c r="T16" s="12"/>
       <c r="U16" s="12"/>
       <c r="V16" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W16" s="12"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="12"/>
       <c r="Z16" s="12"/>
       <c r="AA16" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB16" s="12"/>
       <c r="AC16" s="12"/>
       <c r="AD16" s="12"/>
       <c r="AE16" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF16" s="12"/>
       <c r="AG16" s="12"/>
       <c r="AH16" s="12"/>
     </row>
     <row r="17" spans="1:34" s="7" customFormat="1" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="20">
+      <c r="A17" s="36">
         <v>2</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>57</v>
+      <c r="B17" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>56</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L17" s="10"/>
       <c r="M17" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N17" s="10"/>
       <c r="O17" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P17" s="10"/>
       <c r="Q17" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R17" s="10"/>
       <c r="S17" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="T17" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U17" s="10"/>
       <c r="V17" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W17" s="10"/>
       <c r="X17" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y17" s="10"/>
       <c r="Z17" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AA17" s="10"/>
       <c r="AB17" s="10"/>
       <c r="AC17" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD17" s="10"/>
       <c r="AE17" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AF17" s="10"/>
       <c r="AG17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH17" s="10"/>
+    </row>
+    <row r="18" spans="1:34" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="37"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="11" t="s">
         <v>52</v>
-      </c>
-      <c r="AH17" s="10"/>
-    </row>
-    <row r="18" spans="1:34" s="7" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21"/>
-      <c r="B18" s="24"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="11" t="s">
-        <v>53</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
       <c r="H18" s="12"/>
       <c r="I18" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J18" s="12"/>
       <c r="K18" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L18" s="12"/>
       <c r="M18" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N18" s="12"/>
       <c r="O18" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P18" s="12"/>
       <c r="Q18" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R18" s="12"/>
       <c r="S18" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T18" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U18" s="12"/>
       <c r="V18" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W18" s="12"/>
       <c r="X18" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y18" s="12"/>
       <c r="Z18" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AA18" s="12"/>
       <c r="AB18" s="12"/>
       <c r="AC18" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD18" s="12"/>
       <c r="AE18" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF18" s="12"/>
       <c r="AG18" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH18" s="12"/>
     </row>
     <row r="19" spans="1:34" s="7" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="26"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="42"/>
       <c r="D19" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -1890,51 +1890,51 @@
       <c r="H19" s="12"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
       <c r="N19" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
       <c r="Q19" s="12"/>
       <c r="R19" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S19" s="12"/>
       <c r="T19" s="12"/>
       <c r="U19" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="V19" s="12"/>
       <c r="W19" s="12"/>
       <c r="X19" s="12"/>
       <c r="Y19" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z19" s="12"/>
       <c r="AA19" s="12"/>
       <c r="AB19" s="12"/>
       <c r="AC19" s="12"/>
       <c r="AD19" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AE19" s="12"/>
       <c r="AF19" s="12"/>
       <c r="AG19" s="12"/>
       <c r="AH19" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:34" s="7" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="27"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="43"/>
       <c r="D20" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -1942,111 +1942,111 @@
       <c r="H20" s="12"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
       <c r="M20" s="12"/>
       <c r="N20" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O20" s="12"/>
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S20" s="12"/>
       <c r="T20" s="12"/>
       <c r="U20" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V20" s="12"/>
       <c r="W20" s="12"/>
       <c r="X20" s="12"/>
       <c r="Y20" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z20" s="12"/>
       <c r="AA20" s="12"/>
       <c r="AB20" s="12"/>
       <c r="AC20" s="12"/>
       <c r="AD20" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE20" s="12"/>
       <c r="AF20" s="12"/>
       <c r="AG20" s="12"/>
       <c r="AH20" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:34" s="7" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="20">
+      <c r="A21" s="36">
         <v>3</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>59</v>
+      <c r="B21" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="41" t="s">
+        <v>58</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I21" s="10"/>
       <c r="J21" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K21" s="10"/>
       <c r="L21" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M21" s="10"/>
       <c r="N21" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O21" s="10"/>
       <c r="P21" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="10"/>
       <c r="R21" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="S21" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="T21" s="10"/>
       <c r="U21" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V21" s="10"/>
       <c r="W21" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="X21" s="10"/>
       <c r="Y21" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Z21" s="10"/>
       <c r="AA21" s="10"/>
       <c r="AB21" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
@@ -2054,65 +2054,65 @@
       <c r="AH21" s="10"/>
     </row>
     <row r="22" spans="1:34" s="7" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="21"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="26"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F22" s="12"/>
       <c r="G22" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I22" s="12"/>
       <c r="J22" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K22" s="12"/>
       <c r="L22" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="M22" s="12"/>
       <c r="N22" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O22" s="12"/>
       <c r="P22" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q22" s="12"/>
       <c r="R22" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S22" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T22" s="12"/>
       <c r="U22" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V22" s="12"/>
       <c r="W22" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X22" s="12"/>
       <c r="Y22" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z22" s="12"/>
       <c r="AA22" s="12"/>
       <c r="AB22" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC22" s="12"/>
       <c r="AD22" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AE22" s="12"/>
       <c r="AF22" s="12"/>
@@ -2120,52 +2120,52 @@
       <c r="AH22" s="12"/>
     </row>
     <row r="23" spans="1:34" s="7" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21"/>
-      <c r="B23" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="26"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="42"/>
       <c r="D23" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="12"/>
       <c r="I23" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
       <c r="M23" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N23" s="12"/>
       <c r="O23" s="12"/>
       <c r="P23" s="12"/>
       <c r="Q23" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R23" s="12"/>
       <c r="S23" s="12"/>
       <c r="T23" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
       <c r="W23" s="12"/>
       <c r="X23" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
       <c r="AA23" s="12"/>
       <c r="AB23" s="12"/>
       <c r="AC23" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AD23" s="12"/>
       <c r="AE23" s="12"/>
@@ -2174,50 +2174,50 @@
       <c r="AH23" s="12"/>
     </row>
     <row r="24" spans="1:34" s="7" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="27"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="43"/>
       <c r="D24" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="12"/>
       <c r="I24" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
       <c r="M24" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N24" s="12"/>
       <c r="O24" s="12"/>
       <c r="P24" s="12"/>
       <c r="Q24" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R24" s="12"/>
       <c r="S24" s="12"/>
       <c r="T24" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
       <c r="W24" s="12"/>
       <c r="X24" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y24" s="12"/>
       <c r="Z24" s="12"/>
       <c r="AA24" s="12"/>
       <c r="AB24" s="12"/>
       <c r="AC24" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD24" s="12"/>
       <c r="AE24" s="12"/>
@@ -2226,17 +2226,17 @@
       <c r="AH24" s="12"/>
     </row>
     <row r="25" spans="1:34" s="7" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20">
+      <c r="A25" s="36">
         <v>4</v>
       </c>
-      <c r="B25" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>60</v>
+      <c r="B25" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>59</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -2244,61 +2244,61 @@
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K25" s="10"/>
       <c r="L25" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M25" s="10"/>
       <c r="N25" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O25" s="10"/>
       <c r="P25" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q25" s="10"/>
       <c r="R25" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="S25" s="10"/>
       <c r="T25" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="U25" s="10"/>
       <c r="V25" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="W25" s="10"/>
       <c r="X25" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Y25" s="10"/>
       <c r="Z25" s="10"/>
       <c r="AA25" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB25" s="10"/>
       <c r="AC25" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AD25" s="10"/>
       <c r="AE25" s="10"/>
       <c r="AF25" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AG25" s="10"/>
       <c r="AH25" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:34" s="7" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="24"/>
-      <c r="C26" s="26"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="42"/>
       <c r="D26" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -2306,63 +2306,63 @@
       <c r="H26" s="12"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K26" s="12"/>
       <c r="L26" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M26" s="12"/>
       <c r="N26" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O26" s="12"/>
       <c r="P26" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q26" s="12"/>
       <c r="R26" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S26" s="12"/>
       <c r="T26" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="U26" s="12"/>
       <c r="V26" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="W26" s="12"/>
       <c r="X26" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Y26" s="12"/>
       <c r="Z26" s="12"/>
       <c r="AA26" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AB26" s="12"/>
       <c r="AC26" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AD26" s="12"/>
       <c r="AE26" s="12"/>
       <c r="AF26" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG26" s="12"/>
       <c r="AH26" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:34" s="7" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
-      <c r="B27" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27" s="26"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="42"/>
       <c r="D27" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -2371,48 +2371,48 @@
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L27" s="12"/>
       <c r="M27" s="12"/>
       <c r="N27" s="12"/>
       <c r="O27" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
       <c r="S27" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
       <c r="W27" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="X27" s="12"/>
       <c r="Y27" s="12"/>
       <c r="Z27" s="12"/>
       <c r="AA27" s="12"/>
       <c r="AB27" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AC27" s="12"/>
       <c r="AD27" s="12"/>
       <c r="AE27" s="12"/>
       <c r="AF27" s="12"/>
       <c r="AG27" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AH27" s="12"/>
     </row>
     <row r="28" spans="1:34" s="7" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="22"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="27"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="43"/>
       <c r="D28" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -2421,65 +2421,65 @@
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L28" s="12"/>
       <c r="M28" s="12"/>
       <c r="N28" s="12"/>
       <c r="O28" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
       <c r="S28" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T28" s="12"/>
       <c r="U28" s="12"/>
       <c r="V28" s="12"/>
       <c r="W28" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X28" s="12"/>
       <c r="Y28" s="12"/>
       <c r="Z28" s="12"/>
       <c r="AA28" s="12"/>
       <c r="AB28" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC28" s="12"/>
       <c r="AD28" s="12"/>
       <c r="AE28" s="12"/>
       <c r="AF28" s="12"/>
       <c r="AG28" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH28" s="12"/>
     </row>
     <row r="29" spans="1:34" s="7" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="20">
+      <c r="A29" s="36">
         <v>5</v>
       </c>
-      <c r="B29" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>61</v>
+      <c r="B29" s="39" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="41" t="s">
+        <v>60</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J29" s="10"/>
       <c r="K29" s="10"/>
@@ -2497,41 +2497,41 @@
       <c r="W29" s="10"/>
       <c r="X29" s="10"/>
       <c r="Y29" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Z29" s="10"/>
       <c r="AA29" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB29" s="10"/>
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
       <c r="AE29" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AF29" s="10"/>
       <c r="AG29" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AH29" s="10"/>
     </row>
     <row r="30" spans="1:34" s="7" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="26"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="42"/>
       <c r="D30" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J30" s="12"/>
       <c r="K30" s="12"/>
@@ -2549,40 +2549,40 @@
       <c r="W30" s="12"/>
       <c r="X30" s="12"/>
       <c r="Y30" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Z30" s="12"/>
       <c r="AA30" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AB30" s="12"/>
       <c r="AC30" s="12"/>
       <c r="AD30" s="12"/>
       <c r="AE30" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AF30" s="12"/>
       <c r="AG30" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AH30" s="12"/>
     </row>
     <row r="31" spans="1:34" s="7" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" s="26"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="42"/>
       <c r="D31" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E31" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
       <c r="H31" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
@@ -2602,7 +2602,7 @@
       <c r="X31" s="12"/>
       <c r="Y31" s="12"/>
       <c r="Z31" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AA31" s="12"/>
       <c r="AB31" s="12"/>
@@ -2610,25 +2610,25 @@
       <c r="AD31" s="12"/>
       <c r="AE31" s="12"/>
       <c r="AF31" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AG31" s="12"/>
       <c r="AH31" s="12"/>
     </row>
     <row r="32" spans="1:34" s="7" customFormat="1" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="22"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E32" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F32" s="12"/>
       <c r="G32" s="12"/>
       <c r="H32" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
@@ -2648,7 +2648,7 @@
       <c r="X32" s="12"/>
       <c r="Y32" s="12"/>
       <c r="Z32" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA32" s="12"/>
       <c r="AB32" s="12"/>
@@ -2656,7 +2656,7 @@
       <c r="AD32" s="12"/>
       <c r="AE32" s="12"/>
       <c r="AF32" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG32" s="12"/>
       <c r="AH32" s="12"/>
@@ -2664,113 +2664,144 @@
     <row r="33" spans="1:34" s="7" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="13"/>
       <c r="B33" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C33" s="15"/>
       <c r="D33" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="J33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="M33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="O33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="U33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="W33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="X33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Y33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Z33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AA33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AB33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AC33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AD33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AE33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AF33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH33" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="AC9:AC11"/>
-    <mergeCell ref="AD9:AD11"/>
-    <mergeCell ref="AE9:AE11"/>
-    <mergeCell ref="X9:X11"/>
-    <mergeCell ref="Y9:Y11"/>
-    <mergeCell ref="Z9:Z11"/>
-    <mergeCell ref="AA9:AA11"/>
-    <mergeCell ref="AB9:AB11"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A29:A32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="AF9:AF11"/>
+    <mergeCell ref="AG9:AG11"/>
+    <mergeCell ref="AH9:AH11"/>
+    <mergeCell ref="G9:G11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J11"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="M9:M11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="O9:O11"/>
+    <mergeCell ref="P9:P11"/>
+    <mergeCell ref="Q9:Q11"/>
+    <mergeCell ref="R9:R11"/>
+    <mergeCell ref="S9:S11"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C16"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="F9:F11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="T9:T11"/>
     <mergeCell ref="C1:X3"/>
     <mergeCell ref="C4:X4"/>
@@ -2787,45 +2818,14 @@
     <mergeCell ref="U9:U11"/>
     <mergeCell ref="V9:V11"/>
     <mergeCell ref="W9:W11"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="F9:F11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="AF9:AF11"/>
-    <mergeCell ref="AG9:AG11"/>
-    <mergeCell ref="AH9:AH11"/>
-    <mergeCell ref="G9:G11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:J11"/>
-    <mergeCell ref="K9:K11"/>
-    <mergeCell ref="L9:L11"/>
-    <mergeCell ref="M9:M11"/>
-    <mergeCell ref="N9:N11"/>
-    <mergeCell ref="O9:O11"/>
-    <mergeCell ref="P9:P11"/>
-    <mergeCell ref="Q9:Q11"/>
-    <mergeCell ref="R9:R11"/>
-    <mergeCell ref="S9:S11"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A21:A24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A29:A32"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C28"/>
+    <mergeCell ref="AC9:AC11"/>
+    <mergeCell ref="AD9:AD11"/>
+    <mergeCell ref="AE9:AE11"/>
+    <mergeCell ref="X9:X11"/>
+    <mergeCell ref="Y9:Y11"/>
+    <mergeCell ref="Z9:Z11"/>
+    <mergeCell ref="AA9:AA11"/>
+    <mergeCell ref="AB9:AB11"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
   <pageSetup fitToHeight="0" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
